--- a/jdCardData.xlsx
+++ b/jdCardData.xlsx
@@ -19,165 +19,556 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>jdpasscard</t>
   </si>
   <si>
-    <t>66D9-9B0D-A676-2FCD</t>
-  </si>
-  <si>
-    <t>E407-E193-A5FC-1812</t>
-  </si>
-  <si>
-    <t>005B-8644-FA42-0F5D</t>
-  </si>
-  <si>
-    <t>AD35-0A93-8A1C-30C3</t>
-  </si>
-  <si>
-    <t>271C-70ED-F3E5-EDCA</t>
-  </si>
-  <si>
-    <t>E61A-94FD-A1E6-719D</t>
-  </si>
-  <si>
-    <t>D616-66F4-5388-017C</t>
-  </si>
-  <si>
-    <t>10D3-2EE1-ECCF-AB3F</t>
-  </si>
-  <si>
-    <t>FC3F-62CA-10A7-151A</t>
-  </si>
-  <si>
-    <t>0877-04F6-2E42-5C12</t>
-  </si>
-  <si>
-    <t>D049-DE67-5C01-2D25</t>
-  </si>
-  <si>
-    <t>ABC8-3F2C-7C48-152A</t>
-  </si>
-  <si>
-    <t>1B23-8479-F2E9-7ACA</t>
-  </si>
-  <si>
-    <t>0BED-46E0-4E04-E90F</t>
-  </si>
-  <si>
-    <t>8902-9821-636E-49BA</t>
-  </si>
-  <si>
-    <t>2AE2-5F32-39E9-9453</t>
-  </si>
-  <si>
-    <t>2FA7-1A94-E215-84A7</t>
-  </si>
-  <si>
-    <t>A9EE-D0A6-8728-C996</t>
-  </si>
-  <si>
-    <t>9F86-718B-9DF5-8062</t>
-  </si>
-  <si>
-    <t>A39C-DDB3-9146-B3DE</t>
-  </si>
-  <si>
-    <t>5A69-E5EF-EA66-1A35</t>
-  </si>
-  <si>
-    <t>FC87-E6E1-58D2-743C</t>
-  </si>
-  <si>
-    <t>E17A-D6B1-1DDE-61F6</t>
-  </si>
-  <si>
-    <t>4F77-9801-178F-B4A1</t>
-  </si>
-  <si>
-    <t>E9B1-4DFB-CD37-6D29</t>
-  </si>
-  <si>
-    <t>1476-CC63-BB7A-4BF9</t>
-  </si>
-  <si>
-    <t>5D7C-3E65-2942-C0A5</t>
-  </si>
-  <si>
-    <t>2A32-2914-035D-90FB</t>
-  </si>
-  <si>
-    <t>1983-E3ED-EE67-521F</t>
-  </si>
-  <si>
-    <t>8C89-55CD-7418-5CCA</t>
-  </si>
-  <si>
-    <t>B132-2C77-D420-E244</t>
-  </si>
-  <si>
-    <t>5C17-5792-EF46-3195</t>
-  </si>
-  <si>
-    <t>BAC1-1F1C-AED2-91FF</t>
-  </si>
-  <si>
-    <t>ED58-D1CD-3005-E93C</t>
-  </si>
-  <si>
-    <t>F837-569C-56FE-6F7C</t>
-  </si>
-  <si>
-    <t>B2CD-21AF-B285-FD7E</t>
-  </si>
-  <si>
-    <t>ED6E-9BB7-3824-67BF</t>
-  </si>
-  <si>
-    <t>D0FC-CADE-C711-41FF</t>
-  </si>
-  <si>
-    <t>19BE-20F0-EAF5-53F0</t>
-  </si>
-  <si>
-    <t>6F91-FD82-B5B0-64BF</t>
-  </si>
-  <si>
-    <t>9CE0-3AC1-736F-A758</t>
-  </si>
-  <si>
-    <t>D469-AF30-7B45-8718</t>
-  </si>
-  <si>
-    <t>4E84-90B5-25B6-59BA</t>
-  </si>
-  <si>
-    <t>558D-95EF-BF26-EA22</t>
-  </si>
-  <si>
-    <t>231A-6E77-1232-77CE</t>
-  </si>
-  <si>
-    <t>42D5-70C4-FD65-2AF7</t>
+    <t>A757-4F15-7343-EF8D</t>
+  </si>
+  <si>
+    <t>BA65-5EE2-FC4F-1845</t>
+  </si>
+  <si>
+    <t>C06B-A5DD-A6CF-A88F</t>
+  </si>
+  <si>
+    <t>68D0-D6B3-9088-3765</t>
+  </si>
+  <si>
+    <t>7064-B099-4C6D-6539</t>
+  </si>
+  <si>
+    <t>28A6-6057-149B-C0B6</t>
+  </si>
+  <si>
+    <t>D7E2-4683-5373-515E</t>
+  </si>
+  <si>
+    <t>F763-6A76-02A2-8AB0</t>
+  </si>
+  <si>
+    <t>4337-256E-D9B8-7D75</t>
+  </si>
+  <si>
+    <t>3B0C-4916-7FC9-6C8C</t>
+  </si>
+  <si>
+    <t>2281-1946-8146-4480</t>
+  </si>
+  <si>
+    <t>401C-89A1-A9CB-4DD7</t>
+  </si>
+  <si>
+    <t>2AD2-10F7-6199-2C4F</t>
+  </si>
+  <si>
+    <t>C79E-73F3-2000-3D65</t>
+  </si>
+  <si>
+    <t>06DA-8BE6-5327-081C</t>
+  </si>
+  <si>
+    <t>09FE-31E6-DBDB-A6C0</t>
+  </si>
+  <si>
+    <t>5E8A-BC98-9CF5-415C</t>
+  </si>
+  <si>
+    <t>393D-5822-D19F-C195</t>
+  </si>
+  <si>
+    <t>C2A3-D1CB-925E-F075</t>
+  </si>
+  <si>
+    <t>8371-B553-4BD7-0E47</t>
+  </si>
+  <si>
+    <t>97F3-A504-A48A-CE0F</t>
+  </si>
+  <si>
+    <t>52F3-D721-89D4-7FD9</t>
+  </si>
+  <si>
+    <t>56FE-5BB3-D96F-E07C</t>
+  </si>
+  <si>
+    <t>042F-7BAE-475F-C561</t>
+  </si>
+  <si>
+    <t>BDD5-0865-601F-F255</t>
+  </si>
+  <si>
+    <t>D08E-EAD4-7544-C2AB</t>
+  </si>
+  <si>
+    <t>0919-CBA5-5D5C-CB3E</t>
+  </si>
+  <si>
+    <t>4053-B37C-15E4-819A</t>
+  </si>
+  <si>
+    <t>9429-F2CB-312F-5F78</t>
+  </si>
+  <si>
+    <t>FA3B-BD84-893C-F716</t>
+  </si>
+  <si>
+    <t>EEA0-EB8F-2A9E-230B</t>
+  </si>
+  <si>
+    <t>759C-F965-F644-5200</t>
+  </si>
+  <si>
+    <t>C020-88FF-5D72-6EB6</t>
+  </si>
+  <si>
+    <t>727C-B4E3-A16F-B22C</t>
+  </si>
+  <si>
+    <t>F1EB-179E-299A-50C4</t>
+  </si>
+  <si>
+    <t>CC3A-F8B7-AB43-7F4B</t>
+  </si>
+  <si>
+    <t>3F9F-A5B8-51D6-E513</t>
+  </si>
+  <si>
+    <t>CB02-1EDF-0BDC-4CC8</t>
+  </si>
+  <si>
+    <t>3D7B-A89C-AFF2-1A38</t>
+  </si>
+  <si>
+    <t>D8CE-93DF-B680-DB3D</t>
+  </si>
+  <si>
+    <t>CB36-992C-6BD9-9F75</t>
+  </si>
+  <si>
+    <t>7CDD-5E0A-0D96-5F62</t>
+  </si>
+  <si>
+    <t>8951-A635-FC5D-FEFD</t>
+  </si>
+  <si>
+    <t>C1A0-BC51-E810-405A</t>
+  </si>
+  <si>
+    <t>46A3-3C56-D9DA-0A34</t>
+  </si>
+  <si>
+    <t>7BB9-5393-F323-1092</t>
+  </si>
+  <si>
+    <t>9CD0-DE09-9F1C-A068</t>
+  </si>
+  <si>
+    <t>4215-6D55-DC64-3573</t>
+  </si>
+  <si>
+    <t>809A-A8B5-03DB-3668</t>
+  </si>
+  <si>
+    <t>41BD-74A6-3E71-D783</t>
+  </si>
+  <si>
+    <t>745B-3BF9-14D8-2909</t>
+  </si>
+  <si>
+    <t>7811-460C-BB6E-3105</t>
+  </si>
+  <si>
+    <t>C79B-2CBD-F42B-3B85</t>
+  </si>
+  <si>
+    <t>4469-0324-C33B-DD5D</t>
+  </si>
+  <si>
+    <t>E4A1-F15D-F621-8282</t>
+  </si>
+  <si>
+    <t>6AD1-A7CA-DF87-E175</t>
+  </si>
+  <si>
+    <t>C774-7EEF-ABA2-CA66</t>
+  </si>
+  <si>
+    <t>683B-BBED-81C3-3549</t>
+  </si>
+  <si>
+    <t>9491-1064-DDF4-AB15</t>
+  </si>
+  <si>
+    <t>2C27-A5F9-3FE1-47C7</t>
+  </si>
+  <si>
+    <t>1E4B-8968-5380-5210</t>
+  </si>
+  <si>
+    <t>D6DE-AB73-0D33-9970</t>
+  </si>
+  <si>
+    <t>1786-44FA-8760-9982</t>
+  </si>
+  <si>
+    <t>3B97-5BC0-0C6E-DA13</t>
+  </si>
+  <si>
+    <t>11FC-D4F5-08A9-8FEE</t>
+  </si>
+  <si>
+    <t>B117-C4BA-B47E-B604</t>
+  </si>
+  <si>
+    <t>BAC9-5BF4-2E1F-7B84</t>
+  </si>
+  <si>
+    <t>363E-9936-9026-C3A9</t>
+  </si>
+  <si>
+    <t>D6CF-3711-282A-60D9</t>
+  </si>
+  <si>
+    <t>09D1-CA5E-15AA-666C</t>
+  </si>
+  <si>
+    <t>4B44-B97B-5A45-6994</t>
+  </si>
+  <si>
+    <t>E655-EB18-544B-9FA1</t>
+  </si>
+  <si>
+    <t>CA8B-6A9C-F8F4-0CF4</t>
+  </si>
+  <si>
+    <t>8D5C-4614-BD08-27A6</t>
+  </si>
+  <si>
+    <t>1F76-3CB8-9210-6494</t>
+  </si>
+  <si>
+    <t>DA28-4B67-7154-B087</t>
+  </si>
+  <si>
+    <t>E0CB-5F82-77D6-27BB</t>
+  </si>
+  <si>
+    <t>1AC6-B8AC-37C4-5C45</t>
+  </si>
+  <si>
+    <t>960A-71DF-031A-D878</t>
+  </si>
+  <si>
+    <t>9C4A-5C59-B0CD-90C8</t>
+  </si>
+  <si>
+    <t>9E41-C5BE-E538-D574</t>
+  </si>
+  <si>
+    <t>5518-993B-A8E1-72AC</t>
+  </si>
+  <si>
+    <t>D26A-478F-9CBF-A12A</t>
+  </si>
+  <si>
+    <t>68A3-C637-F24E-5398</t>
+  </si>
+  <si>
+    <t>8741-811C-3DF4-13C7</t>
+  </si>
+  <si>
+    <t>B326-099E-A5EA-F333</t>
+  </si>
+  <si>
+    <t>5A6F-C861-AC4B-0F95</t>
+  </si>
+  <si>
+    <t>2722-F13C-5C37-B1C8</t>
+  </si>
+  <si>
+    <t>B1F3-4442-8F6B-2459</t>
+  </si>
+  <si>
+    <t>26DB-37CA-4898-8252</t>
+  </si>
+  <si>
+    <t>C751-4C9E-DD14-230C</t>
+  </si>
+  <si>
+    <t>F412-3D44-922D-FD81</t>
+  </si>
+  <si>
+    <t>24F2-10FF-EEA2-6CC8</t>
+  </si>
+  <si>
+    <t>0C89-8B7E-7AA7-00B9</t>
+  </si>
+  <si>
+    <t>04E4-C1A9-2DA3-B196</t>
+  </si>
+  <si>
+    <t>BFAF-A11A-F6D4-6314</t>
+  </si>
+  <si>
+    <t>60A4-DD7D-3C68-59B4</t>
+  </si>
+  <si>
+    <t>C903-5410-B1D9-3F24</t>
+  </si>
+  <si>
+    <t>6652-BC69-C3CC-67C4</t>
+  </si>
+  <si>
+    <t>5564-8927-58A4-FE4E</t>
+  </si>
+  <si>
+    <t>007B-7995-A1A0-45DE</t>
+  </si>
+  <si>
+    <t>FA0A-2BDE-C713-42B2</t>
+  </si>
+  <si>
+    <t>9BB8-2CBA-8B63-BA70</t>
+  </si>
+  <si>
+    <t>0CCD-4EEA-1834-2E0B</t>
+  </si>
+  <si>
+    <t>FCD5-7F18-26B4-44AD</t>
+  </si>
+  <si>
+    <t>5BC6-C45A-5AD8-B007</t>
+  </si>
+  <si>
+    <t>9186-C772-3FED-9063</t>
+  </si>
+  <si>
+    <t>F957-1498-C265-FFB4</t>
+  </si>
+  <si>
+    <t>7EF8-E0CB-F756-48BA</t>
+  </si>
+  <si>
+    <t>A09F-D123-C57A-1DAE</t>
+  </si>
+  <si>
+    <t>B127-5566-D235-F2E1</t>
+  </si>
+  <si>
+    <t>934B-C1AB-4E83-CCF1</t>
+  </si>
+  <si>
+    <t>7B07-3884-4014-2AF0</t>
+  </si>
+  <si>
+    <t>79AB-67E1-1991-85AB</t>
+  </si>
+  <si>
+    <t>8A50-392A-0B36-7ABC</t>
+  </si>
+  <si>
+    <t>8DD1-4B3C-0367-B12D</t>
+  </si>
+  <si>
+    <t>46F3-7C89-A2B4-6CE9</t>
+  </si>
+  <si>
+    <t>1516-FE87-D97C-5190</t>
+  </si>
+  <si>
+    <t>2605-F3F4-66A4-5AC2</t>
+  </si>
+  <si>
+    <t>3682-C795-F9EE-51BA</t>
+  </si>
+  <si>
+    <t>46B2-3234-08C2-FBEF</t>
+  </si>
+  <si>
+    <t>DE5D-DF90-8A70-8D78</t>
+  </si>
+  <si>
+    <t>52DA-3216-83D5-DE57</t>
+  </si>
+  <si>
+    <t>A40C-5D6B-BEF8-A22F</t>
+  </si>
+  <si>
+    <t>7F7F-13ED-FA73-4003</t>
+  </si>
+  <si>
+    <t>E6BE-EF84-617B-E26E</t>
+  </si>
+  <si>
+    <t>61AC-3203-16E6-B96D</t>
+  </si>
+  <si>
+    <t>9182-1940-62CD-AD92</t>
+  </si>
+  <si>
+    <t>E81C-ADB2-1E8C-7A16</t>
+  </si>
+  <si>
+    <t>4629-519A-5C15-F2A3</t>
+  </si>
+  <si>
+    <t>6890-3539-237A-7B80</t>
+  </si>
+  <si>
+    <t>ABDE-5294-D598-A0DA</t>
+  </si>
+  <si>
+    <t>E2B8-16B6-D7B7-6F52</t>
+  </si>
+  <si>
+    <t>92E7-FD90-3F3A-8954</t>
+  </si>
+  <si>
+    <t>7B4F-E0CC-8C4D-67D5</t>
+  </si>
+  <si>
+    <t>4EF6-BC52-85EA-0FCF</t>
+  </si>
+  <si>
+    <t>F885-A8AC-DDDA-759D</t>
+  </si>
+  <si>
+    <t>4EFF-DD86-5C89-0F23</t>
+  </si>
+  <si>
+    <t>C03B-C896-A254-6157</t>
+  </si>
+  <si>
+    <t>9E64-8D1C-F7E6-E784</t>
+  </si>
+  <si>
+    <t>8F94-4879-51A6-96DD</t>
+  </si>
+  <si>
+    <t>7C8F-E0CF-8162-D724</t>
+  </si>
+  <si>
+    <t>ECD5-4340-9705-C86D</t>
+  </si>
+  <si>
+    <t>7FFF-6D4D-2027-9DA2</t>
+  </si>
+  <si>
+    <t>39A8-7912-E1F9-B080</t>
+  </si>
+  <si>
+    <t>122C-62E2-2C73-C002</t>
+  </si>
+  <si>
+    <t>E9E7-AB9B-94C2-5B46</t>
+  </si>
+  <si>
+    <t>4030-D2A0-32D3-5775</t>
+  </si>
+  <si>
+    <t>7B2A-40BC-1065-BFE0</t>
+  </si>
+  <si>
+    <t>6664-F7D8-4A3E-5568</t>
+  </si>
+  <si>
+    <t>A154-E838-6C33-520D</t>
+  </si>
+  <si>
+    <t>DB0C-F38A-45E4-91BE</t>
+  </si>
+  <si>
+    <t>9E31-3D23-745A-960B</t>
+  </si>
+  <si>
+    <t>92D0-89EE-B166-1D43</t>
+  </si>
+  <si>
+    <t>6C74-6F2A-C24F-3064</t>
+  </si>
+  <si>
+    <t>6D96-F631-9B9A-BA3F</t>
+  </si>
+  <si>
+    <t>50BA-71C7-501C-B05E</t>
+  </si>
+  <si>
+    <t>FFAA-79E4-394E-6AEC</t>
+  </si>
+  <si>
+    <t>2DE6-314A-CE9B-1E9B</t>
+  </si>
+  <si>
+    <t>2B99-2CEC-F243-E8A0</t>
+  </si>
+  <si>
+    <t>547C-F4A1-1CE1-1EC0</t>
+  </si>
+  <si>
+    <t>E978-2773-E08D-D7D6</t>
+  </si>
+  <si>
+    <t>8328-E16C-FB04-C418</t>
+  </si>
+  <si>
+    <t>FE04-DF5D-92AA-D40C</t>
+  </si>
+  <si>
+    <t>097F-3B96-97F7-78E7</t>
+  </si>
+  <si>
+    <t>9E56-1297-278E-158D</t>
+  </si>
+  <si>
+    <t>2585-1EF5-6C0C-826F</t>
+  </si>
+  <si>
+    <t>5106-2EF8-8F46-B0F7</t>
+  </si>
+  <si>
+    <t>4ECC-88E2-1163-05EE</t>
+  </si>
+  <si>
+    <t>91F1-E700-1F61-B6C6</t>
+  </si>
+  <si>
+    <t>1CDA-6816-3ADA-721F</t>
+  </si>
+  <si>
+    <t>6BCE-49C7-AFC7-933A</t>
+  </si>
+  <si>
+    <t>FD87-E4AB-0614-6D57</t>
+  </si>
+  <si>
+    <t>0684-3D73-943A-9FF2</t>
+  </si>
+  <si>
+    <t>0CB0-A1E3-24BF-4F87</t>
+  </si>
+  <si>
+    <t>2D41-B09A-12B2-B1F1</t>
+  </si>
+  <si>
+    <t>E1B3-AA72-B917-A903</t>
+  </si>
+  <si>
+    <t>95EC-27DD-921A-E0E9</t>
+  </si>
+  <si>
+    <t>48C8-E84D-55BC-EC07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
@@ -193,8 +584,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3366FF"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -212,7 +603,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:A180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A47"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -792,6 +1183,671 @@
         <v>46</v>
       </c>
     </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
